--- a/Results.xlsx
+++ b/Results.xlsx
@@ -72,10 +72,10 @@
 1 Year Warranty</x:t>
   </x:si>
   <x:si>
-    <x:t>Apple MacBook Pro Core i5 8th Gen - (8 GB/512 GB SSD/Mac OS Mojave) MR9R2HN/A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.6</x:t>
+    <x:t>Apple MacBook Pro Core i5 8th Gen - (8 GB/512 GB SSD/Mac OS Mojave) MR9V2HN/A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.9</x:t>
   </x:si>
   <x:si>
     <x:t>₹1,79,990</x:t>
@@ -92,6 +92,9 @@
 1 Year Onsite Warranty</x:t>
   </x:si>
   <x:si>
+    <x:t>Apple MacBook Pro Core i5 8th Gen - (8 GB/512 GB SSD/Mac OS Mojave) MR9R2HN/A</x:t>
+  </x:si>
+  <x:si>
     <x:t>Apple MacBook Core i5 7th Gen - (8 GB/512 GB SSD/Mac OS Mojave) MRQP2HN/A</x:t>
   </x:si>
   <x:si>
@@ -112,7 +115,44 @@
 1 Year Onsite Warranty</x:t>
   </x:si>
   <x:si>
-    <x:t>Apple MacBook Pro Core i5 8th Gen - (8 GB/512 GB SSD/Mac OS Mojave) MR9V2HN/A</x:t>
+    <x:t>Apple MacBook Air Core i5 8th Gen - (8 GB/256 GB SSD/Mac OS Mojave) MREC2HN/A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>₹1,34,900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11% off</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Intel Core i5 Processor (8th Gen)
+8 GB DDR3 RAM
+Mac OS Operating System
+256 GB SSD
+33.78 cm (13.3 inch) Display
+1 Year Carry In Warranty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apple MacBook Air Core i5 8th Gen - (8 GB/256 GB SSD/Mac OS Mojave) MRE92HN/A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apple MacBook Air Core i5 8th Gen - (8 GB/128 GB SSD/Mac OS Mojave) MRE82HN/A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>₹1,14,900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6% off</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Intel Core i5 Processor (8th Gen)
+8 GB DDR3 RAM
+Mac OS Operating System
+128 GB SSD
+33.78 cm (13.3 inch) Display
+1 Year Carry In Warranty</x:t>
   </x:si>
   <x:si>
     <x:t>Apple MacBook Pro Core i5 - (8 GB/256 GB SSD/Mac OS Mojave) MPXU2HN/A</x:t>
@@ -132,35 +172,6 @@
 1 Year Onsite Warranty</x:t>
   </x:si>
   <x:si>
-    <x:t>Apple MacBook Air Core i5 8th Gen - (8 GB/128 GB SSD/Mac OS Mojave) MRE82HN/A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹1,14,900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6% off</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Intel Core i5 Processor (8th Gen)
-8 GB DDR3 RAM
-Mac OS Operating System
-128 GB SSD
-33.78 cm (13.3 inch) Display
-1 Year Carry In Warranty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apple MacBook Pro Core i5 7th Gen - (8 GB/128 GB SSD/Mac OS Sierra) MPXR2HN/A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹1,19,990</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apple MacBook Air Core i5 8th Gen - (8 GB/128 GB SSD/Mac OS Mojave) MREE2HN/A</x:t>
-  </x:si>
-  <x:si>
     <x:t>Apple MacBook Pro Core i5 7th Gen - (8 GB/256 GB SSD/Mac OS Sierra) MPXT2HN/A</x:t>
   </x:si>
   <x:si>
@@ -172,33 +183,22 @@
 1 Year Warranty</x:t>
   </x:si>
   <x:si>
-    <x:t>Apple MacBook Air Core i5 8th Gen - (8 GB/256 GB SSD/Mac OS Mojave) MREC2HN/A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹1,34,900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11% off</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Intel Core i5 Processor (8th Gen)
-8 GB DDR3 RAM
-Mac OS Operating System
-256 GB SSD
-33.78 cm (13.3 inch) Display
-1 Year Carry In Warranty</x:t>
-  </x:si>
-  <x:si>
     <x:t>Apple MacBook Air Core i5 8th Gen - (8 GB/128 GB SSD/Mac OS Mojave) MREA2HN/A</x:t>
   </x:si>
   <x:si>
     <x:t>₹1,14,990</x:t>
   </x:si>
   <x:si>
+    <x:t>Apple MacBook Pro Core i5 7th Gen - (8 GB/128 GB SSD/Mac OS Sierra) MPXR2HN/A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>₹1,19,990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apple MacBook Air Core i5 8th Gen - (8 GB/128 GB SSD/Mac OS Mojave) MREE2HN/A</x:t>
+  </x:si>
+  <x:si>
     <x:t>Apple MacBook Air Core i5 8th Gen - (8 GB/256 GB SSD/Mac OS Mojave) MREF2HN/A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apple MacBook Air Core i5 8th Gen - (8 GB/256 GB SSD/Mac OS Mojave) MRE92HN/A</x:t>
   </x:si>
   <x:si>
     <x:t>Apple Macbook Pro Core i5 8th Gen - (8 GB/256 GB SSD/Mac OS Mojave) MR9U2HN/A</x:t>
@@ -324,6 +324,9 @@
     <x:t>Dell Vostro 15 3000 Core i3 6th Gen - (4 GB/1 TB HDD/Windows 10 Home) 3568 Laptop</x:t>
   </x:si>
   <x:si>
+    <x:t>1% off</x:t>
+  </x:si>
+  <x:si>
     <x:t>Pre-installed Microsoft Office Home and Student 2016
 Intel Core i3 Processor (6th Gen)
 4 GB DDR4 RAM
@@ -333,25 +336,39 @@
 1 Year Onsite Warranty</x:t>
   </x:si>
   <x:si>
+    <x:t>Dell Vostro 15 3000 Core i3 6th Gen - (4 GB/1 TB HDD/Linux) 3568 Laptop</x:t>
+  </x:si>
+  <x:si>
     <x:t>4.3</x:t>
   </x:si>
   <x:si>
+    <x:t>₹34,990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Intel Core i3 Processor (6th Gen)
+4 GB DDR4 RAM
+Linux/Ubuntu Operating System
+1 TB HDD
+39.62 cm (15.6 inch) Display
+1 Year ProSupport: Next Business Day Onsite Service with Accidental Damage Service</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dell Inspiron 14 3000 Series Core i3 7th Gen - (4 GB/1 TB HDD/Linux) inspiron 3467 Laptop</x:t>
+  </x:si>
+  <x:si>
     <x:t>₹36,508</x:t>
   </x:si>
   <x:si>
     <x:t>27% off</x:t>
   </x:si>
   <x:si>
+    <x:t>₹42,649</x:t>
+  </x:si>
+  <x:si>
     <x:t>Dell Inspiron 15 3000 Core i3 7th Gen - (4 GB/1 TB HDD/Windows 10 Home) 3567 Laptop</x:t>
   </x:si>
   <x:si>
     <x:t>4.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹42,649</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1% off</x:t>
   </x:si>
   <x:si>
     <x:t>Intel Core i3 Processor (7th Gen)
@@ -360,23 +377,6 @@
 1 TB HDD
 39.62 cm (15.6 inch) Display
 1 Year Limited Hardware Warranty, In Home Service After Remote Diagnosis - Retail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dell Vostro 15 3000 Core i3 6th Gen - (4 GB/1 TB HDD/Linux) 3568 Laptop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹34,990</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Intel Core i3 Processor (6th Gen)
-4 GB DDR4 RAM
-Linux/Ubuntu Operating System
-1 TB HDD
-39.62 cm (15.6 inch) Display
-1 Year ProSupport: Next Business Day Onsite Service with Accidental Damage Service</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dell Inspiron 14 3000 Series Core i3 7th Gen - (4 GB/1 TB HDD/Linux) inspiron 3467 Laptop</x:t>
   </x:si>
   <x:si>
     <x:t>Dell Inspiron 15 3000 Series Core i3 6th Gen - (4 GB/1 TB HDD/Windows 10 Home) 3567 Laptop</x:t>
@@ -960,33 +960,33 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -994,101 +994,101 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="E9" s="0" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -1102,10 +1102,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -1113,13 +1113,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
@@ -1127,13 +1127,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
@@ -1300,69 +1300,69 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>85</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>86</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
         <x:v>63</x:v>
@@ -1371,7 +1371,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -1385,7 +1385,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>90</x:v>
@@ -1532,7 +1532,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>111</x:v>
@@ -1617,7 +1617,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>118</x:v>
@@ -1665,7 +1665,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>120</x:v>
@@ -1713,7 +1713,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>106</x:v>
